--- a/data_month/zb/工业/工业分大类行业出口交货值(2018-至今)/酒、饮料和精制茶制造业.xlsx
+++ b/data_month/zb/工业/工业分大类行业出口交货值(2018-至今)/酒、饮料和精制茶制造业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,825 +454,962 @@
           <t>酒、饮料和精制茶制造业出口交货值_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>酒、饮料和精制茶制造业出口交货值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23.9</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>197.9</v>
+        <v>33.3</v>
       </c>
       <c r="E2" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7.2</v>
+        <v>6.9</v>
       </c>
       <c r="C3" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="D3" t="n">
-        <v>216.8</v>
+        <v>52.2</v>
       </c>
       <c r="E3" t="n">
-        <v>10.8</v>
+        <v>9.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18.90000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.4</v>
+        <v>21.3</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>19.6</v>
       </c>
       <c r="D4" t="n">
-        <v>236.8</v>
+        <v>72.5</v>
       </c>
       <c r="E4" t="n">
-        <v>10.4</v>
+        <v>12.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.3</v>
+      </c>
       <c r="D5" t="n">
-        <v>33.3</v>
+        <v>92.3</v>
       </c>
       <c r="E5" t="n">
-        <v>13.5</v>
+        <v>7.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.9</v>
+        <v>24.4</v>
       </c>
       <c r="C6" t="n">
-        <v>18.1</v>
+        <v>23.7</v>
       </c>
       <c r="D6" t="n">
-        <v>52.2</v>
+        <v>115.2</v>
       </c>
       <c r="E6" t="n">
-        <v>9.1</v>
+        <v>9.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22.90000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.3</v>
+        <v>0.7</v>
       </c>
       <c r="C7" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D7" t="n">
-        <v>72.5</v>
+        <v>137.2</v>
       </c>
       <c r="E7" t="n">
-        <v>12.5</v>
+        <v>10.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21.99999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.5</v>
+        <v>-2.5</v>
       </c>
       <c r="C8" t="n">
-        <v>22.3</v>
+        <v>18.9</v>
       </c>
       <c r="D8" t="n">
-        <v>92.3</v>
+        <v>154.1</v>
       </c>
       <c r="E8" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.90000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.4</v>
+        <v>1.2</v>
       </c>
       <c r="C9" t="n">
-        <v>23.7</v>
+        <v>18.7</v>
       </c>
       <c r="D9" t="n">
-        <v>115.2</v>
+        <v>179</v>
       </c>
       <c r="E9" t="n">
-        <v>9.6</v>
+        <v>12.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24.90000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="C10" t="n">
-        <v>19.7</v>
+        <v>23.9</v>
       </c>
       <c r="D10" t="n">
-        <v>137.2</v>
+        <v>197.9</v>
       </c>
       <c r="E10" t="n">
-        <v>10.7</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18.90000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.5</v>
+        <v>-7.2</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9</v>
+        <v>18.3</v>
       </c>
       <c r="D11" t="n">
-        <v>154.1</v>
+        <v>216.8</v>
       </c>
       <c r="E11" t="n">
-        <v>7.2</v>
+        <v>10.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.90000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="C12" t="n">
-        <v>18.7</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>179</v>
+        <v>236.8</v>
       </c>
       <c r="E12" t="n">
-        <v>12.8</v>
+        <v>10.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-32.8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15.3</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>179.7</v>
+        <v>31.1</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.6</v>
+        <v>-0.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.9</v>
+        <v>-14.5</v>
       </c>
       <c r="C14" t="n">
-        <v>21.9</v>
+        <v>14.5</v>
       </c>
       <c r="D14" t="n">
-        <v>201</v>
+        <v>42.7</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.2</v>
+        <v>-12.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.4</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8</v>
+        <v>25.1</v>
       </c>
       <c r="D15" t="n">
-        <v>228.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>2.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23.2</v>
+      </c>
       <c r="D16" t="n">
-        <v>31.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2</v>
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>23.69999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-14.5</v>
+        <v>-14.7</v>
       </c>
       <c r="C17" t="n">
-        <v>14.5</v>
+        <v>19.1</v>
       </c>
       <c r="D17" t="n">
-        <v>42.7</v>
+        <v>110.9</v>
       </c>
       <c r="E17" t="n">
-        <v>-12.9</v>
+        <v>1.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19.80000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>44</v>
+        <v>3.9</v>
       </c>
       <c r="C18" t="n">
-        <v>25.1</v>
+        <v>19.5</v>
       </c>
       <c r="D18" t="n">
-        <v>67.40000000000001</v>
+        <v>131.2</v>
       </c>
       <c r="E18" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>20.29999999999998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.5</v>
+        <v>19.1</v>
       </c>
       <c r="C19" t="n">
-        <v>23.2</v>
+        <v>22.1</v>
       </c>
       <c r="D19" t="n">
-        <v>91.09999999999999</v>
+        <v>154.2</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>3.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-14.7</v>
+        <v>4.3</v>
       </c>
       <c r="C20" t="n">
-        <v>19.1</v>
+        <v>18.5</v>
       </c>
       <c r="D20" t="n">
-        <v>110.9</v>
+        <v>166.6</v>
       </c>
       <c r="E20" t="n">
-        <v>1.8</v>
+        <v>-1.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12.40000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.9</v>
+        <v>-32.8</v>
       </c>
       <c r="C21" t="n">
-        <v>19.5</v>
+        <v>15.3</v>
       </c>
       <c r="D21" t="n">
-        <v>131.2</v>
+        <v>179.7</v>
       </c>
       <c r="E21" t="n">
-        <v>2.8</v>
+        <v>-3.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.09999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.1</v>
+        <v>24.9</v>
       </c>
       <c r="C22" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="D22" t="n">
-        <v>154.2</v>
+        <v>201</v>
       </c>
       <c r="E22" t="n">
-        <v>3.7</v>
+        <v>-2.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21.30000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.3</v>
+        <v>-5.4</v>
       </c>
       <c r="C23" t="n">
-        <v>18.5</v>
+        <v>21.8</v>
       </c>
       <c r="D23" t="n">
-        <v>166.6</v>
+        <v>228.5</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.6</v>
+        <v>-1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>17.8</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>168.5</v>
+        <v>27.9</v>
       </c>
       <c r="E24" t="n">
-        <v>-8</v>
+        <v>-11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>27.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-36.5</v>
+        <v>26.7</v>
       </c>
       <c r="C25" t="n">
-        <v>14.2</v>
+        <v>19.6</v>
       </c>
       <c r="D25" t="n">
-        <v>182.8</v>
+        <v>49.8</v>
       </c>
       <c r="E25" t="n">
-        <v>-10.8</v>
+        <v>12.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-32.6</v>
+        <v>-29.9</v>
       </c>
       <c r="C26" t="n">
-        <v>14.4</v>
+        <v>18.1</v>
       </c>
       <c r="D26" t="n">
-        <v>198.5</v>
+        <v>64.7</v>
       </c>
       <c r="E26" t="n">
-        <v>-12.9</v>
+        <v>-7.2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14.90000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-21.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>18.8</v>
+      </c>
       <c r="D27" t="n">
-        <v>27.9</v>
+        <v>83.7</v>
       </c>
       <c r="E27" t="n">
         <v>-11</v>
       </c>
+      <c r="F27" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.7</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>19.6</v>
+        <v>18.6</v>
       </c>
       <c r="D28" t="n">
-        <v>49.8</v>
+        <v>102.3</v>
       </c>
       <c r="E28" t="n">
-        <v>12.4</v>
+        <v>-10.9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>18.59999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-29.9</v>
+        <v>-25.9</v>
       </c>
       <c r="C29" t="n">
-        <v>18.1</v>
+        <v>15.1</v>
       </c>
       <c r="D29" t="n">
-        <v>64.7</v>
+        <v>117.3</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.2</v>
+        <v>-12.9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-21.7</v>
+        <v>-25.4</v>
       </c>
       <c r="C30" t="n">
-        <v>18.8</v>
+        <v>16.8</v>
       </c>
       <c r="D30" t="n">
-        <v>83.7</v>
+        <v>133.5</v>
       </c>
       <c r="E30" t="n">
-        <v>-11</v>
+        <v>-15.1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>16.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-8.199999999999999</v>
+        <v>-9.6</v>
       </c>
       <c r="C31" t="n">
-        <v>18.6</v>
+        <v>17.1</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3</v>
+        <v>150.8</v>
       </c>
       <c r="E31" t="n">
-        <v>-10.9</v>
+        <v>-11.1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>17.30000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-25.9</v>
+        <v>13.3</v>
       </c>
       <c r="C32" t="n">
-        <v>15.1</v>
+        <v>17.8</v>
       </c>
       <c r="D32" t="n">
-        <v>117.3</v>
+        <v>168.5</v>
       </c>
       <c r="E32" t="n">
-        <v>-12.9</v>
+        <v>-8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>17.69999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-25.4</v>
+        <v>-36.5</v>
       </c>
       <c r="C33" t="n">
-        <v>16.8</v>
+        <v>14.2</v>
       </c>
       <c r="D33" t="n">
-        <v>133.5</v>
+        <v>182.8</v>
       </c>
       <c r="E33" t="n">
-        <v>-15.1</v>
+        <v>-10.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>14.30000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-9.6</v>
+        <v>-32.6</v>
       </c>
       <c r="C34" t="n">
-        <v>17.1</v>
+        <v>14.4</v>
       </c>
       <c r="D34" t="n">
-        <v>150.8</v>
+        <v>198.5</v>
       </c>
       <c r="E34" t="n">
-        <v>-11.1</v>
+        <v>-12.9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15.69999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>16.3</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>171.8</v>
+        <v>28.6</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.7</v>
+        <v>2.1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.9</v>
+        <v>-8.5</v>
       </c>
       <c r="C36" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="D36" t="n">
-        <v>192.2</v>
+        <v>44.9</v>
       </c>
       <c r="E36" t="n">
-        <v>2.2</v>
+        <v>-10.6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>16.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="D37" t="n">
-        <v>214</v>
+        <v>64.3</v>
       </c>
       <c r="E37" t="n">
-        <v>3.4</v>
+        <v>-1.9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>19.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>19.8</v>
+      </c>
       <c r="D38" t="n">
-        <v>28.6</v>
+        <v>85.3</v>
       </c>
       <c r="E38" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
+      </c>
+      <c r="F38" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-8.5</v>
+        <v>-1</v>
       </c>
       <c r="C39" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="F39" t="n">
         <v>18</v>
-      </c>
-      <c r="D39" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-10.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.9</v>
+        <v>10.1</v>
       </c>
       <c r="C40" t="n">
-        <v>19.4</v>
+        <v>17.5</v>
       </c>
       <c r="D40" t="n">
-        <v>64.3</v>
+        <v>121.2</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.9</v>
+        <v>0.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>17.90000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.3</v>
+        <v>-4.3</v>
       </c>
       <c r="C41" t="n">
-        <v>19.8</v>
+        <v>16.5</v>
       </c>
       <c r="D41" t="n">
-        <v>85.3</v>
+        <v>138</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>16.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>-34.5</v>
       </c>
       <c r="C42" t="n">
-        <v>19.2</v>
+        <v>16.2</v>
       </c>
       <c r="D42" t="n">
-        <v>103.3</v>
+        <v>155.1</v>
       </c>
       <c r="E42" t="n">
         <v>-0.9</v>
       </c>
+      <c r="F42" t="n">
+        <v>17.09999999999999</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.1</v>
+        <v>-0.5</v>
       </c>
       <c r="C43" t="n">
-        <v>17.5</v>
+        <v>16.3</v>
       </c>
       <c r="D43" t="n">
-        <v>121.2</v>
+        <v>171.8</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7</v>
+        <v>-0.7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16.70000000000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-4.3</v>
+        <v>22.9</v>
       </c>
       <c r="C44" t="n">
-        <v>16.5</v>
+        <v>18.3</v>
       </c>
       <c r="D44" t="n">
-        <v>138</v>
+        <v>192.2</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>20.39999999999998</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-34.5</v>
+        <v>6.7</v>
       </c>
       <c r="C45" t="n">
-        <v>16.2</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>155.1</v>
+        <v>214</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.9</v>
+        <v>3.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>21.80000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/工业分大类行业出口交货值(2018-至今)/酒、饮料和精制茶制造业.xlsx
+++ b/data_month/zb/工业/工业分大类行业出口交货值(2018-至今)/酒、饮料和精制茶制造业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,962 +454,1121 @@
           <t>酒、饮料和精制茶制造业出口交货值_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>酒、饮料和精制茶制造业出口交货值</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23.9</v>
+      </c>
       <c r="D2" t="n">
-        <v>33.3</v>
+        <v>197.9</v>
       </c>
       <c r="E2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33.3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.9</v>
+        <v>-7.2</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="D3" t="n">
-        <v>52.2</v>
+        <v>216.8</v>
       </c>
       <c r="E3" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>18.90000000000001</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.3</v>
+        <v>8.4</v>
       </c>
       <c r="C4" t="n">
-        <v>19.6</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>72.5</v>
+        <v>236.8</v>
       </c>
       <c r="E4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.3</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>22.3</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>92.3</v>
+        <v>33.3</v>
       </c>
       <c r="E5" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19.8</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.4</v>
+        <v>6.9</v>
       </c>
       <c r="C6" t="n">
-        <v>23.7</v>
+        <v>18.1</v>
       </c>
       <c r="D6" t="n">
-        <v>115.2</v>
+        <v>52.2</v>
       </c>
       <c r="E6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>22.90000000000001</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7</v>
+        <v>21.3</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D7" t="n">
-        <v>137.2</v>
+        <v>72.5</v>
       </c>
       <c r="E7" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>21.99999999999999</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.5</v>
+        <v>11.5</v>
       </c>
       <c r="C8" t="n">
-        <v>18.9</v>
+        <v>22.3</v>
       </c>
       <c r="D8" t="n">
-        <v>154.1</v>
+        <v>92.3</v>
       </c>
       <c r="E8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16.90000000000001</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.2</v>
+        <v>24.4</v>
       </c>
       <c r="C9" t="n">
-        <v>18.7</v>
+        <v>23.7</v>
       </c>
       <c r="D9" t="n">
-        <v>179</v>
+        <v>115.2</v>
       </c>
       <c r="E9" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24.90000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="C10" t="n">
-        <v>23.9</v>
+        <v>19.7</v>
       </c>
       <c r="D10" t="n">
-        <v>197.9</v>
+        <v>137.2</v>
       </c>
       <c r="E10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>18.90000000000001</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.2</v>
+        <v>-2.5</v>
       </c>
       <c r="C11" t="n">
-        <v>18.3</v>
+        <v>18.9</v>
       </c>
       <c r="D11" t="n">
-        <v>216.8</v>
+        <v>154.1</v>
       </c>
       <c r="E11" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>18.90000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.4</v>
+        <v>1.2</v>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>18.7</v>
       </c>
       <c r="D12" t="n">
-        <v>236.8</v>
+        <v>179</v>
       </c>
       <c r="E12" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>20</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-32.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.3</v>
+      </c>
       <c r="D13" t="n">
-        <v>31.1</v>
+        <v>179.7</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>31.1</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-14.5</v>
+        <v>24.9</v>
       </c>
       <c r="C14" t="n">
-        <v>14.5</v>
+        <v>21.9</v>
       </c>
       <c r="D14" t="n">
-        <v>42.7</v>
+        <v>201</v>
       </c>
       <c r="E14" t="n">
-        <v>-12.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11.6</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44</v>
+        <v>-5.4</v>
       </c>
       <c r="C15" t="n">
-        <v>25.1</v>
+        <v>21.8</v>
       </c>
       <c r="D15" t="n">
-        <v>67.40000000000001</v>
+        <v>228.5</v>
       </c>
       <c r="E15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>24.7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>23.2</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>91.09999999999999</v>
+        <v>31.1</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>23.69999999999999</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-14.7</v>
+        <v>-14.5</v>
       </c>
       <c r="C17" t="n">
-        <v>19.1</v>
+        <v>14.5</v>
       </c>
       <c r="D17" t="n">
-        <v>110.9</v>
+        <v>42.7</v>
       </c>
       <c r="E17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19.80000000000001</v>
+        <v>-12.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.9</v>
+        <v>44</v>
       </c>
       <c r="C18" t="n">
-        <v>19.5</v>
+        <v>25.1</v>
       </c>
       <c r="D18" t="n">
-        <v>131.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>20.29999999999998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.1</v>
+        <v>9.5</v>
       </c>
       <c r="C19" t="n">
-        <v>22.1</v>
+        <v>23.2</v>
       </c>
       <c r="D19" t="n">
-        <v>154.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.3</v>
+        <v>-14.7</v>
       </c>
       <c r="C20" t="n">
-        <v>18.5</v>
+        <v>19.1</v>
       </c>
       <c r="D20" t="n">
-        <v>166.6</v>
+        <v>110.9</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>12.40000000000001</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-32.8</v>
+        <v>3.9</v>
       </c>
       <c r="C21" t="n">
-        <v>15.3</v>
+        <v>19.5</v>
       </c>
       <c r="D21" t="n">
-        <v>179.7</v>
+        <v>131.2</v>
       </c>
       <c r="E21" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>13.09999999999999</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.9</v>
+        <v>19.1</v>
       </c>
       <c r="C22" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="D22" t="n">
-        <v>201</v>
+        <v>154.2</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>21.30000000000001</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.4</v>
+        <v>4.3</v>
       </c>
       <c r="C23" t="n">
-        <v>21.8</v>
+        <v>18.5</v>
       </c>
       <c r="D23" t="n">
-        <v>228.5</v>
+        <v>166.6</v>
       </c>
       <c r="E23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>27.5</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17.8</v>
+      </c>
       <c r="D24" t="n">
-        <v>27.9</v>
+        <v>168.5</v>
       </c>
       <c r="E24" t="n">
-        <v>-11</v>
-      </c>
-      <c r="F24" t="n">
-        <v>27.9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.7</v>
+        <v>-36.5</v>
       </c>
       <c r="C25" t="n">
-        <v>19.6</v>
+        <v>14.2</v>
       </c>
       <c r="D25" t="n">
-        <v>49.8</v>
+        <v>182.8</v>
       </c>
       <c r="E25" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>21.9</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-29.9</v>
+        <v>-32.6</v>
       </c>
       <c r="C26" t="n">
-        <v>18.1</v>
+        <v>14.4</v>
       </c>
       <c r="D26" t="n">
-        <v>64.7</v>
+        <v>198.5</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>14.90000000000001</v>
+        <v>-12.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-21.7</v>
-      </c>
-      <c r="C27" t="n">
-        <v>18.8</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>83.7</v>
+        <v>27.9</v>
       </c>
       <c r="E27" t="n">
         <v>-11</v>
       </c>
-      <c r="F27" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-8.199999999999999</v>
+        <v>26.7</v>
       </c>
       <c r="C28" t="n">
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3</v>
+        <v>49.8</v>
       </c>
       <c r="E28" t="n">
-        <v>-10.9</v>
-      </c>
-      <c r="F28" t="n">
-        <v>18.59999999999999</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-25.9</v>
+        <v>-29.9</v>
       </c>
       <c r="C29" t="n">
-        <v>15.1</v>
+        <v>18.1</v>
       </c>
       <c r="D29" t="n">
-        <v>117.3</v>
+        <v>64.7</v>
       </c>
       <c r="E29" t="n">
-        <v>-12.9</v>
-      </c>
-      <c r="F29" t="n">
-        <v>15</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-25.4</v>
+        <v>-21.7</v>
       </c>
       <c r="C30" t="n">
-        <v>16.8</v>
+        <v>18.8</v>
       </c>
       <c r="D30" t="n">
-        <v>133.5</v>
+        <v>83.7</v>
       </c>
       <c r="E30" t="n">
-        <v>-15.1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>16.2</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-9.6</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>17.1</v>
+        <v>18.6</v>
       </c>
       <c r="D31" t="n">
-        <v>150.8</v>
+        <v>102.3</v>
       </c>
       <c r="E31" t="n">
-        <v>-11.1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>17.30000000000001</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.3</v>
+        <v>-25.9</v>
       </c>
       <c r="C32" t="n">
-        <v>17.8</v>
+        <v>15.1</v>
       </c>
       <c r="D32" t="n">
-        <v>168.5</v>
+        <v>117.3</v>
       </c>
       <c r="E32" t="n">
-        <v>-8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>17.69999999999999</v>
+        <v>-12.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-36.5</v>
+        <v>-25.4</v>
       </c>
       <c r="C33" t="n">
-        <v>14.2</v>
+        <v>16.8</v>
       </c>
       <c r="D33" t="n">
-        <v>182.8</v>
+        <v>133.5</v>
       </c>
       <c r="E33" t="n">
-        <v>-10.8</v>
-      </c>
-      <c r="F33" t="n">
-        <v>14.30000000000001</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-32.6</v>
+        <v>-9.6</v>
       </c>
       <c r="C34" t="n">
-        <v>14.4</v>
+        <v>17.1</v>
       </c>
       <c r="D34" t="n">
-        <v>198.5</v>
+        <v>150.8</v>
       </c>
       <c r="E34" t="n">
-        <v>-12.9</v>
-      </c>
-      <c r="F34" t="n">
-        <v>15.69999999999999</v>
+        <v>-11.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>16.3</v>
+      </c>
       <c r="D35" t="n">
-        <v>28.6</v>
+        <v>171.8</v>
       </c>
       <c r="E35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>28.6</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-8.5</v>
+        <v>22.9</v>
       </c>
       <c r="C36" t="n">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="D36" t="n">
-        <v>44.9</v>
+        <v>192.2</v>
       </c>
       <c r="E36" t="n">
-        <v>-10.6</v>
-      </c>
-      <c r="F36" t="n">
-        <v>16.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="C37" t="n">
-        <v>19.4</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>64.3</v>
+        <v>214</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="F37" t="n">
-        <v>19.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>19.8</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>85.3</v>
+        <v>28.6</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F38" t="n">
-        <v>21</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>-8.5</v>
       </c>
       <c r="C39" t="n">
-        <v>19.2</v>
+        <v>18</v>
       </c>
       <c r="D39" t="n">
-        <v>103.3</v>
+        <v>44.9</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="F39" t="n">
-        <v>18</v>
+        <v>-10.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.1</v>
+        <v>5.9</v>
       </c>
       <c r="C40" t="n">
-        <v>17.5</v>
+        <v>19.4</v>
       </c>
       <c r="D40" t="n">
-        <v>121.2</v>
+        <v>64.3</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>17.90000000000001</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-4.3</v>
+        <v>3.3</v>
       </c>
       <c r="C41" t="n">
-        <v>16.5</v>
+        <v>19.8</v>
       </c>
       <c r="D41" t="n">
-        <v>138</v>
+        <v>85.3</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>16.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-34.5</v>
+        <v>-1</v>
       </c>
       <c r="C42" t="n">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="D42" t="n">
-        <v>155.1</v>
+        <v>103.3</v>
       </c>
       <c r="E42" t="n">
         <v>-0.9</v>
       </c>
-      <c r="F42" t="n">
-        <v>17.09999999999999</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.5</v>
+        <v>10.1</v>
       </c>
       <c r="C43" t="n">
-        <v>16.3</v>
+        <v>17.5</v>
       </c>
       <c r="D43" t="n">
-        <v>171.8</v>
+        <v>121.2</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>16.70000000000002</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22.9</v>
+        <v>-4.3</v>
       </c>
       <c r="C44" t="n">
-        <v>18.3</v>
+        <v>16.5</v>
       </c>
       <c r="D44" t="n">
-        <v>192.2</v>
+        <v>138</v>
       </c>
       <c r="E44" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>20.39999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.7</v>
+        <v>-34.5</v>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>16.2</v>
       </c>
       <c r="D45" t="n">
-        <v>214</v>
+        <v>155.1</v>
       </c>
       <c r="E45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>21.80000000000001</v>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>187</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>232.4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>34</v>
+      </c>
+      <c r="E49" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="C50" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>52</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C51" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>18</v>
+      </c>
+      <c r="C52" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D52" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>115.7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>13</v>
+      </c>
+      <c r="C54" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>16</v>
+      </c>
+      <c r="D55" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-8.6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C58" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>52</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-5.1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="D61" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.6</v>
       </c>
     </row>
   </sheetData>
